--- a/03-project-management-playground/01-PMFUPM/Chapter04-Planning/02-create-a-project-schedule/04-critical-path/02-turky-dinner-task-list-02.xlsx
+++ b/03-project-management-playground/01-PMFUPM/Chapter04-Planning/02-create-a-project-schedule/04-critical-path/02-turky-dinner-task-list-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlxu/Workspace/github/xuyuji9000/miscellaneous-playground/03-project-management-playground/01-PMFUPM/Chapter04-Planning/02-create-a-project-schedule/04-critical-path/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F458767A-DBFD-0A42-8119-3022FB027D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41562E74-A303-1F4C-92E7-8D905CE37A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17180" xr2:uid="{D0236691-3BAF-4D40-8E5D-E0827B959F17}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="18580" xr2:uid="{D0236691-3BAF-4D40-8E5D-E0827B959F17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>DURATION</t>
   </si>
@@ -47,22 +47,127 @@
     <t>PREDECESSOR</t>
   </si>
   <si>
-    <t>WORK HOURS</t>
-  </si>
-  <si>
-    <t>START DATE</t>
-  </si>
-  <si>
-    <t>END DATE</t>
-  </si>
-  <si>
     <t>WHO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>TURKEY PREPARATION</t>
+  </si>
+  <si>
+    <t>Thaw Turkey</t>
+  </si>
+  <si>
+    <t>Pre-heat Oven</t>
+  </si>
+  <si>
+    <t>Cook Bird</t>
+  </si>
+  <si>
+    <t>Rest Turkey</t>
+  </si>
+  <si>
+    <t>Present Turkey, Carve and Serve</t>
+  </si>
+  <si>
+    <t>TABLE SETTING</t>
+  </si>
+  <si>
+    <t>Arrange Table and Chairs</t>
+  </si>
+  <si>
+    <t>Position Tablecloth and Centerpiece</t>
+  </si>
+  <si>
+    <t>Set China and Silverware</t>
+  </si>
+  <si>
+    <t>1.1, 1.2</t>
+  </si>
+  <si>
+    <t>1.4, 2.3</t>
+  </si>
+  <si>
+    <t>40.3 hours</t>
+  </si>
+  <si>
+    <t>36 hours</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>2.6 hour</t>
+  </si>
+  <si>
+    <t>0.5 hour</t>
+  </si>
+  <si>
+    <t>0.2 hour</t>
+  </si>
+  <si>
+    <t>0.25 hour</t>
+  </si>
+  <si>
+    <t>WORK
+HOURS</t>
+  </si>
+  <si>
+    <t>START 
+DATE</t>
+  </si>
+  <si>
+    <t>END 
+DATE</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Dec.31</t>
+  </si>
+  <si>
+    <t>Jan.1</t>
+  </si>
+  <si>
+    <t>Teen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/m/d\ hh:mm\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -72,10 +177,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,9 +210,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +242,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59938CB9-F2DE-A34A-A5CE-390DD0408EBF}" name="Table6" displayName="Table6" ref="A3:H12" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{657751E3-FA97-7E45-A833-ED8E3A29DFB3}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{B91A80B6-2791-9442-9CE5-923FD45B1146}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{B42DBBA7-8CEC-8740-8F9D-EE024C88D45B}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{D45E482B-05A6-C94D-80F9-9D82B68FFBE9}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{04B359DC-2C03-364E-8B35-27B518621724}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{3F68720B-570C-E940-B15A-ACC134DBF430}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{26B7E0E3-B209-1441-A395-E83451497CBC}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{659C92BD-8B5B-204D-ABAA-53806825E1B5}" name="Column8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,43 +577,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4ACC0-B70D-CC40-B3AC-9F665D335233}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="6"/>
+      <c r="I1" s="7">
+        <v>42004.029166666667</v>
+      </c>
+      <c r="J1" s="7">
+        <v>42005</v>
+      </c>
+      <c r="K1" s="7">
+        <v>42005.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3:C12" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>